--- a/Dataset/Folds/Fold_1/Excel/100.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/100.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="188">
   <si>
     <t>Doi</t>
   </si>
@@ -557,6 +557,58 @@
   </si>
   <si>
     <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                           Laura%Brischigliaro%NULL%2,                           Laura%Brischigliaro%NULL%0,                           Tommaso%Scquizzato%NULL%2,                           Tommaso%Scquizzato%NULL%0,                           Andrea%Favaretto%NULL%2,                           Andrea%Favaretto%NULL%0,                           Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                            Giuseppe Maria%Sechi%NULL%2,                            Giuseppe Maria%Sechi%NULL%0,                            Claudio%Mare%NULL%1,                            Fabrizio%Canevari%NULL%1,                            Antonella%Brancaglione%NULL%1,                            Roberto%Primi%NULL%1,                            Catherine%Klersy%NULL%1,                            Alessandra%Palo%NULL%2,                            Alessandra%Palo%NULL%0,                            Enrico%Contri%NULL%1,                            Vincenza%Ronchi%NULL%2,                            Vincenza%Ronchi%NULL%0,                            Giorgio%Beretta%NULL%1,                            Francesca%Reali%NULL%1,                            Pierpaolo%Parogni%NULL%1,                            Fabio%Facchin%NULL%1,                            Ugo%Rizzi%NULL%1,                            Daniele%Bussi%NULL%1,                            Simone%Ruggeri%NULL%1,                            Luigi%Oltrona Visconti%NULL%1,                            Simone%Savastano%s.savastano@smatteo.pv.it%1,                            Sara%Compagnoni%NULL%3,                            Sara%Compagnoni%NULL%0,                            Sara%Compagnoni%NULL%0,                            Rosa%Fracchia%NULL%1,                            Antonio%Cuzzoli%NULL%1,                            Andrea%Pagliosa%NULL%1,                            Guido%Matiz%NULL%1,                            Alessandra%Russo%NULL%1,                            Andrea Lorenzo%Vecchi%NULL%1,                            Cecilia%Fantoni%NULL%1,                            Cristian%Fava%NULL%1,                            Cinzia%Franzosi%NULL%1,                            Claudio%Vimercati%NULL%1,                            Dario%Franchi%NULL%1,                            Enrico%Storti%NULL%1,                            Erika%Taravelli%NULL%1,                            Fulvio%Giovenzana%NULL%1,                            Giovanni%Buetto%NULL%1,                            Guido%Garzena%NULL%1,                            Giorgio Antonio%Iotti%NULL%1,                            Guido Francesco%Villa%NULL%1,                            Marco%Botteri%NULL%1,                            Salvatore Ivan%Caico%NULL%1,                            Irene Raimondi%Cominesi%NULL%1,                            Livio%Carnevale%NULL%1,                            Matteo%Caresani%NULL%1,                            Mario%Luppi%NULL%1,                            Maurizio%Migliori%NULL%1,                            Paola%Centineo%NULL%1,                            Paola%Genoni%NULL%1,                            Roberta%Bertona%NULL%1,                            Roberto%De Ponti%NULL%1,                            Riccardo%Osti%NULL%1,                            Stefano%Buratti%NULL%1,                            Gian Battista%Danzi%NULL%1,                            Arianna%Marioni%NULL%1,                            Antonella%De Pirro%NULL%1,                            Simone%Molinari%NULL%1,                            Vito%Sgromo%NULL%1,                            Valeria%Musella%NULL%1,                            Martina%Paglino%NULL%1,                            Francesco%Mojoli%NULL%1,                            Bruno%Lusona%NULL%1,                            Michele%Pagani%NULL%1,                            Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                            Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                            Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                            Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                            Elizabeth A.%Lancet%NULL%1,                            Michael D.%Weiden%NULL%1,                            Mayris P.%Webber%NULL%1,                            Rachel%Zeig-Owens%NULL%1,                            Charles B.%Hall%NULL%1,                            David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                            Laura%Brischigliaro%NULL%2,                            Laura%Brischigliaro%NULL%0,                            Tommaso%Scquizzato%NULL%2,                            Tommaso%Scquizzato%NULL%0,                            Andrea%Favaretto%NULL%2,                            Andrea%Favaretto%NULL%0,                            Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%1,                             Giuseppe Maria%Sechi%NULL%2,                             Giuseppe Maria%Sechi%NULL%0,                             Claudio%Mare%NULL%1,                             Fabrizio%Canevari%NULL%1,                             Antonella%Brancaglione%NULL%1,                             Roberto%Primi%NULL%1,                             Catherine%Klersy%NULL%1,                             Alessandra%Palo%NULL%2,                             Alessandra%Palo%NULL%0,                             Enrico%Contri%NULL%1,                             Vincenza%Ronchi%NULL%2,                             Vincenza%Ronchi%NULL%0,                             Giorgio%Beretta%NULL%1,                             Francesca%Reali%NULL%1,                             Pierpaolo%Parogni%NULL%1,                             Fabio%Facchin%NULL%1,                             Ugo%Rizzi%NULL%1,                             Daniele%Bussi%NULL%1,                             Simone%Ruggeri%NULL%1,                             Luigi%Oltrona Visconti%NULL%1,                             Simone%Savastano%s.savastano@smatteo.pv.it%1,                             Sara%Compagnoni%NULL%3,                             Sara%Compagnoni%NULL%0,                             Sara%Compagnoni%NULL%0,                             Rosa%Fracchia%NULL%1,                             Antonio%Cuzzoli%NULL%1,                             Andrea%Pagliosa%NULL%1,                             Guido%Matiz%NULL%1,                             Alessandra%Russo%NULL%1,                             Andrea Lorenzo%Vecchi%NULL%1,                             Cecilia%Fantoni%NULL%1,                             Cristian%Fava%NULL%1,                             Cinzia%Franzosi%NULL%1,                             Claudio%Vimercati%NULL%1,                             Dario%Franchi%NULL%1,                             Enrico%Storti%NULL%1,                             Erika%Taravelli%NULL%1,                             Fulvio%Giovenzana%NULL%1,                             Giovanni%Buetto%NULL%1,                             Guido%Garzena%NULL%1,                             Giorgio Antonio%Iotti%NULL%1,                             Guido Francesco%Villa%NULL%1,                             Marco%Botteri%NULL%1,                             Salvatore Ivan%Caico%NULL%1,                             Irene Raimondi%Cominesi%NULL%1,                             Livio%Carnevale%NULL%1,                             Matteo%Caresani%NULL%1,                             Mario%Luppi%NULL%1,                             Maurizio%Migliori%NULL%1,                             Paola%Centineo%NULL%1,                             Paola%Genoni%NULL%1,                             Roberta%Bertona%NULL%1,                             Roberto%De Ponti%NULL%1,                             Riccardo%Osti%NULL%1,                             Stefano%Buratti%NULL%1,                             Gian Battista%Danzi%NULL%1,                             Arianna%Marioni%NULL%1,                             Antonella%De Pirro%NULL%1,                             Simone%Molinari%NULL%1,                             Vito%Sgromo%NULL%1,                             Valeria%Musella%NULL%1,                             Martina%Paglino%NULL%1,                             Francesco%Mojoli%NULL%1,                             Bruno%Lusona%NULL%1,                             Michele%Pagani%NULL%1,                             Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%1,                             Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1,                             Jiming%Liu%jiming@comp.hkbu.edu.hk%1,                             Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%1,                             Elizabeth A.%Lancet%NULL%1,                             Michael D.%Weiden%NULL%1,                             Mayris P.%Webber%NULL%1,                             Rachel%Zeig-Owens%NULL%1,                             Charles B.%Hall%NULL%1,                             David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%1,                             Laura%Brischigliaro%NULL%2,                             Laura%Brischigliaro%NULL%0,                             Tommaso%Scquizzato%NULL%2,                             Tommaso%Scquizzato%NULL%0,                             Andrea%Favaretto%NULL%2,                             Andrea%Favaretto%NULL%0,                             Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Enrico%Baldi%NULL%0, Giuseppe Maria%Sechi%NULL%2, Giuseppe Maria%Sechi%NULL%0, Claudio%Mare%NULL%1, Fabrizio%Canevari%NULL%1, Antonella%Brancaglione%NULL%1, Roberto%Primi%NULL%1, Catherine%Klersy%NULL%1, Alessandra%Palo%NULL%2, Alessandra%Palo%NULL%0, Enrico%Contri%NULL%1, Vincenza%Ronchi%NULL%2, Vincenza%Ronchi%NULL%0, Giorgio%Beretta%NULL%1, Francesca%Reali%NULL%1, Pierpaolo%Parogni%NULL%1, Fabio%Facchin%NULL%1, Ugo%Rizzi%NULL%1, Daniele%Bussi%NULL%1, Simone%Ruggeri%NULL%1, Luigi%Oltrona Visconti%NULL%1, Simone%Savastano%s.savastano@smatteo.pv.it%1, Sara%Compagnoni%NULL%3, Sara%Compagnoni%NULL%0, Sara%Compagnoni%NULL%0, Rosa%Fracchia%NULL%1, Antonio%Cuzzoli%NULL%1, Andrea%Pagliosa%NULL%1, Guido%Matiz%NULL%1, Alessandra%Russo%NULL%1, Andrea Lorenzo%Vecchi%NULL%1, Cecilia%Fantoni%NULL%1, Cristian%Fava%NULL%1, Cinzia%Franzosi%NULL%1, Claudio%Vimercati%NULL%1, Dario%Franchi%NULL%1, Enrico%Storti%NULL%1, Erika%Taravelli%NULL%1, Fulvio%Giovenzana%NULL%1, Giovanni%Buetto%NULL%1, Guido%Garzena%NULL%1, Giorgio Antonio%Iotti%NULL%1, Guido Francesco%Villa%NULL%1, Marco%Botteri%NULL%1, Salvatore Ivan%Caico%NULL%1, Irene Raimondi%Cominesi%NULL%1, Livio%Carnevale%NULL%1, Matteo%Caresani%NULL%1, Mario%Luppi%NULL%1, Maurizio%Migliori%NULL%1, Paola%Centineo%NULL%1, Paola%Genoni%NULL%1, Roberta%Bertona%NULL%1, Roberto%De Ponti%NULL%1, Riccardo%Osti%NULL%1, Stefano%Buratti%NULL%1, Gian Battista%Danzi%NULL%1, Arianna%Marioni%NULL%1, Antonella%De Pirro%NULL%1, Simone%Molinari%NULL%1, Vito%Sgromo%NULL%1, Valeria%Musella%NULL%1, Martina%Paglino%NULL%1, Francesco%Mojoli%NULL%1, Bruno%Lusona%NULL%1, Michele%Pagani%NULL%1, Moreno%Curti%NULL%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Xiang%Wan%xwan@comp.hkbu.edu.hk%0, Wenqian%Wang%wenqianwang2014@u.northwestern.edu%1, Jiming%Liu%jiming@comp.hkbu.edu.hk%1, Tiejun%Tong%tongt@hkbu.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This cross-sectional study describes the characteristics associated with outpatient cardiac arrests and death during the coronavirus disease 2019 pandemic in New York City.
+</t>
+  </si>
+  <si>
+    <t>[Pamela H.%Lai%NULL%0, Elizabeth A.%Lancet%NULL%1, Michael D.%Weiden%NULL%1, Mayris P.%Webber%NULL%1, Rachel%Zeig-Owens%NULL%1, Charles B.%Hall%NULL%1, David J.%Prezant%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Andrea%Paoli%andrea.paoli@aopd.veneto.it%0, Laura%Brischigliaro%NULL%2, Laura%Brischigliaro%NULL%0, Tommaso%Scquizzato%NULL%0, Tommaso%Scquizzato%NULL%0, Andrea%Favaretto%NULL%2, Andrea%Favaretto%NULL%0, Andrea%Spagna%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
   </si>
 </sst>
 </file>
@@ -883,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -895,10 +947,10 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -915,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -927,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4">
@@ -944,10 +996,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -959,10 +1011,10 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5">
@@ -979,7 +1031,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -991,10 +1043,10 @@
         <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -1005,28 +1057,28 @@
         <v>44047.0</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
